--- a/medicine/Pharmacie/Pyriméthamine/Pyriméthamine.xlsx
+++ b/medicine/Pharmacie/Pyriméthamine/Pyriméthamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pyrim%C3%A9thamine</t>
+          <t>Pyriméthamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La pyriméthamine est un médicament utilisé pour traiter certaines infections à protozoaire. L'effet thérapeutique a été découvert par l'équipe de Gertrude Elion.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pyrim%C3%A9thamine</t>
+          <t>Pyriméthamine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Indications thérapeutiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C'est un parasiticide
 C'est un antipaludéen qui en association avec la sulfadoxine en cas de chloroquino-résistance permet de traiter le paludisme. En raison de sa toxicité cette association est déconseillée en prévention du paludisme.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pyrim%C3%A9thamine</t>
+          <t>Pyriméthamine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,13 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brevet
-Le brevet de la  pyriméthamine est expiré.
-Information commerciale
-Elle fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[4].
-Aux États-Unis, il est commercialisé sous le nom de Daraprim et en Europe sous les noms Malocide, Daraprim et Fancidar.
-Scandale du Daraprim
-Devenu président exécutif de Turing Pharmaceuticals, Martin Shkreli achète les droits exclusifs de commercialisation du Daraprim pour 55 millions de $ au laboratoire Impax Laboratories. En août 2015, le prix du Daraprim est multiplié par 55,55 passant de 13,5 $ à 750 $ la pilule[5],[6]. Pour se justifier, Martin Shkreli explique que « C’est une société capitaliste, un système capitaliste, des règles capitalistes »[7]. Aux États-Unis, aucun générique n'est commercialisé en 2015.
+          <t>Brevet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le brevet de la  pyriméthamine est expiré.
 </t>
         </is>
       </c>
@@ -566,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pyrim%C3%A9thamine</t>
+          <t>Pyriméthamine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,12 +595,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Article connexe</t>
+          <t>Commercialisation</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Martin Shkreli et le scandale du Daraprim</t>
+          <t>Information commerciale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
+Aux États-Unis, il est commercialisé sous le nom de Daraprim et en Europe sous les noms Malocide, Daraprim et Fancidar.
+</t>
         </is>
       </c>
     </row>
@@ -596,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pyrim%C3%A9thamine</t>
+          <t>Pyriméthamine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,10 +633,81 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Scandale du Daraprim</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Devenu président exécutif de Turing Pharmaceuticals, Martin Shkreli achète les droits exclusifs de commercialisation du Daraprim pour 55 millions de $ au laboratoire Impax Laboratories. En août 2015, le prix du Daraprim est multiplié par 55,55 passant de 13,5 $ à 750 $ la pilule,. Pour se justifier, Martin Shkreli explique que « C’est une société capitaliste, un système capitaliste, des règles capitalistes ». Aux États-Unis, aucun générique n'est commercialisé en 2015.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pyriméthamine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pyrim%C3%A9thamine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Article connexe</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Martin Shkreli et le scandale du Daraprim</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pyriméthamine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pyrim%C3%A9thamine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Compendium suisse des médicaments : spécialités contenant Pyriméthamine</t>
         </is>
